--- a/src/metrics/percentage_case_1.xlsx
+++ b/src/metrics/percentage_case_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,217 +669,248 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mistral_7b_instruct_v3</t>
+          <t>mistral_7b_instruct_v2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.28440366972477</v>
+        <v>91.22935779816514</v>
       </c>
       <c r="C8" t="n">
-        <v>55.08256880733945</v>
+        <v>38.86238532110092</v>
       </c>
       <c r="D8" t="n">
-        <v>55.08256880733945</v>
+        <v>47.52293577981651</v>
       </c>
       <c r="E8" t="n">
-        <v>47.63302752293578</v>
+        <v>39.26605504587156</v>
       </c>
       <c r="F8" t="n">
-        <v>26.45871559633027</v>
+        <v>5.688073394495413</v>
       </c>
       <c r="G8" t="n">
-        <v>53.21100917431193</v>
+        <v>3.926605504587156</v>
       </c>
       <c r="H8" t="n">
-        <v>38.05504587155963</v>
+        <v>2.422018348623853</v>
       </c>
       <c r="I8" t="n">
-        <v>54.01834862385321</v>
+        <v>2.642201834862385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mixtral_8x22b_instruct_v01</t>
+          <t>mistral_7b_instruct_v3</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.31192660550458</v>
+        <v>89.28440366972477</v>
       </c>
       <c r="C9" t="n">
-        <v>68.3302752293578</v>
+        <v>55.08256880733945</v>
       </c>
       <c r="D9" t="n">
-        <v>59.22935779816514</v>
+        <v>55.08256880733945</v>
       </c>
       <c r="E9" t="n">
-        <v>63.81651376146789</v>
+        <v>47.63302752293578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3669724770642202</v>
+        <v>26.45871559633027</v>
       </c>
       <c r="G9" t="n">
-        <v>1.981651376146789</v>
+        <v>53.21100917431193</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9908256880733944</v>
+        <v>38.05504587155963</v>
       </c>
       <c r="I9" t="n">
-        <v>3.229357798165137</v>
+        <v>54.01834862385321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mixtral_8x7b_instruct_v01</t>
+          <t>mixtral_8x22b_instruct_v01</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.38532110091742</v>
+        <v>86.31192660550458</v>
       </c>
       <c r="C10" t="n">
-        <v>66.78899082568807</v>
+        <v>68.3302752293578</v>
       </c>
       <c r="D10" t="n">
-        <v>67.30275229357798</v>
+        <v>59.22935779816514</v>
       </c>
       <c r="E10" t="n">
-        <v>65.3211009174312</v>
+        <v>63.81651376146789</v>
       </c>
       <c r="F10" t="n">
+        <v>0.3669724770642202</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.981651376146789</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.9908256880733944</v>
       </c>
-      <c r="G10" t="n">
-        <v>6.201834862385321</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.091743119266055</v>
-      </c>
       <c r="I10" t="n">
-        <v>9.211009174311927</v>
+        <v>3.229357798165137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>phi_3_5_moe_instruct</t>
+          <t>mixtral_8x7b_instruct_v01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.98165137614679</v>
+        <v>94.38532110091742</v>
       </c>
       <c r="C11" t="n">
-        <v>46.67889908256881</v>
+        <v>66.78899082568807</v>
       </c>
       <c r="D11" t="n">
-        <v>38.86238532110092</v>
+        <v>67.30275229357798</v>
       </c>
       <c r="E11" t="n">
-        <v>43.63302752293578</v>
+        <v>65.3211009174312</v>
       </c>
       <c r="F11" t="n">
-        <v>45.90825688073394</v>
+        <v>0.9908256880733944</v>
       </c>
       <c r="G11" t="n">
-        <v>12.95412844036697</v>
+        <v>6.201834862385321</v>
       </c>
       <c r="H11" t="n">
-        <v>15.59633027522936</v>
+        <v>2.091743119266055</v>
       </c>
       <c r="I11" t="n">
-        <v>9.064220183486238</v>
+        <v>9.211009174311927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>phi_3_small_8k_instruct</t>
+          <t>phi_3_5_moe_instruct</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.44954128440367</v>
+        <v>49.98165137614679</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4954128440367</v>
+        <v>46.67889908256881</v>
       </c>
       <c r="D12" t="n">
-        <v>21.68807339449542</v>
+        <v>38.86238532110092</v>
       </c>
       <c r="E12" t="n">
-        <v>26.97247706422019</v>
+        <v>43.63302752293578</v>
       </c>
       <c r="F12" t="n">
-        <v>19.22935779816514</v>
+        <v>45.90825688073394</v>
       </c>
       <c r="G12" t="n">
-        <v>19.48623853211009</v>
+        <v>12.95412844036697</v>
       </c>
       <c r="H12" t="n">
-        <v>43.19266055045872</v>
+        <v>15.59633027522936</v>
       </c>
       <c r="I12" t="n">
-        <v>36.69724770642202</v>
+        <v>9.064220183486238</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>qwen_2_5_14b_instruct</t>
+          <t>phi_3_small_8k_instruct</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.78899082568807</v>
+        <v>35.44954128440367</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8348623853211</v>
+        <v>30.4954128440367</v>
       </c>
       <c r="D13" t="n">
-        <v>20.14678899082569</v>
+        <v>21.68807339449542</v>
       </c>
       <c r="E13" t="n">
-        <v>21.68807339449542</v>
+        <v>26.97247706422019</v>
       </c>
       <c r="F13" t="n">
-        <v>47.59633027522936</v>
+        <v>19.22935779816514</v>
       </c>
       <c r="G13" t="n">
-        <v>44.03669724770643</v>
+        <v>19.48623853211009</v>
       </c>
       <c r="H13" t="n">
-        <v>43.41284403669724</v>
+        <v>43.19266055045872</v>
       </c>
       <c r="I13" t="n">
-        <v>36.51376146788991</v>
+        <v>36.69724770642202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>qwen_2_5_14b_instruct</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>66.78899082568807</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29.8348623853211</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20.14678899082569</v>
+      </c>
+      <c r="E14" t="n">
+        <v>21.68807339449542</v>
+      </c>
+      <c r="F14" t="n">
+        <v>47.59633027522936</v>
+      </c>
+      <c r="G14" t="n">
+        <v>44.03669724770643</v>
+      </c>
+      <c r="H14" t="n">
+        <v>43.41284403669724</v>
+      </c>
+      <c r="I14" t="n">
+        <v>36.51376146788991</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>qwen_2_5_7b_instruct</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>79.08256880733944</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>42.01834862385321</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>33.76146788990826</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>47.41284403669725</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>68.9908256880734</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>59.41284403669724</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>59.26605504587156</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>44.62385321100918</v>
       </c>
     </row>

--- a/src/metrics/percentage_case_1.xlsx
+++ b/src/metrics/percentage_case_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,28 +487,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.15596330275229</v>
+        <v>35.16</v>
       </c>
       <c r="C2" t="n">
-        <v>5.908256880733945</v>
+        <v>5.91</v>
       </c>
       <c r="D2" t="n">
-        <v>7.522935779816514</v>
+        <v>7.52</v>
       </c>
       <c r="E2" t="n">
-        <v>14.97247706422018</v>
+        <v>14.97</v>
       </c>
       <c r="F2" t="n">
-        <v>12.3302752293578</v>
+        <v>12.33</v>
       </c>
       <c r="G2" t="n">
-        <v>30.31192660550458</v>
+        <v>30.31</v>
       </c>
       <c r="H2" t="n">
-        <v>39.37614678899082</v>
+        <v>39.38</v>
       </c>
       <c r="I2" t="n">
-        <v>35.15596330275229</v>
+        <v>35.16</v>
       </c>
     </row>
     <row r="3">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.74311926605505</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>45.76146788990826</v>
+        <v>45.76</v>
       </c>
       <c r="D3" t="n">
-        <v>55.81651376146789</v>
+        <v>55.82</v>
       </c>
       <c r="E3" t="n">
-        <v>50.86238532110092</v>
+        <v>50.86</v>
       </c>
       <c r="F3" t="n">
-        <v>50.64220183486239</v>
+        <v>50.64</v>
       </c>
       <c r="G3" t="n">
-        <v>29.68807339449541</v>
+        <v>29.69</v>
       </c>
       <c r="H3" t="n">
-        <v>51.00917431192661</v>
+        <v>51.01</v>
       </c>
       <c r="I3" t="n">
-        <v>26.71559633027523</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="4">
@@ -549,369 +549,400 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.11009174311926</v>
+        <v>56.11</v>
       </c>
       <c r="C4" t="n">
-        <v>24.77064220183486</v>
+        <v>24.77</v>
       </c>
       <c r="D4" t="n">
-        <v>24.62385321100918</v>
+        <v>24.62</v>
       </c>
       <c r="E4" t="n">
-        <v>19.74311926605505</v>
+        <v>19.74</v>
       </c>
       <c r="F4" t="n">
-        <v>28.47706422018349</v>
+        <v>28.48</v>
       </c>
       <c r="G4" t="n">
-        <v>22.38532110091743</v>
+        <v>22.39</v>
       </c>
       <c r="H4" t="n">
-        <v>30.78899082568807</v>
+        <v>30.79</v>
       </c>
       <c r="I4" t="n">
-        <v>23.15596330275229</v>
+        <v>23.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>llama3_8b_instruct</t>
+          <t>llama3_70b_instruct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.72477064220183</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>48.77064220183486</v>
+        <v>71.23</v>
       </c>
       <c r="D5" t="n">
-        <v>34.75229357798165</v>
+        <v>71.89</v>
       </c>
       <c r="E5" t="n">
-        <v>31.22935779816514</v>
+        <v>66.86</v>
       </c>
       <c r="F5" t="n">
-        <v>2.348623853211009</v>
+        <v>9.98</v>
       </c>
       <c r="G5" t="n">
-        <v>3.155963302752294</v>
+        <v>8.15</v>
       </c>
       <c r="H5" t="n">
-        <v>6.862385321100918</v>
+        <v>6.79</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5045871559633</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>llama3_1_8b_instruct</t>
+          <t>llama3_8b_instruct</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.88073394495413</v>
+        <v>53.72</v>
       </c>
       <c r="C6" t="n">
-        <v>32.3302752293578</v>
+        <v>48.77</v>
       </c>
       <c r="D6" t="n">
-        <v>25.28440366972477</v>
+        <v>34.75</v>
       </c>
       <c r="E6" t="n">
-        <v>30.42201834862385</v>
+        <v>31.23</v>
       </c>
       <c r="F6" t="n">
-        <v>41.02752293577981</v>
+        <v>2.35</v>
       </c>
       <c r="G6" t="n">
-        <v>30.27522935779817</v>
+        <v>3.16</v>
       </c>
       <c r="H6" t="n">
-        <v>36</v>
+        <v>6.86</v>
       </c>
       <c r="I6" t="n">
-        <v>36.40366972477064</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mistral_7b_instruct_v1</t>
+          <t>llama3_1_8b_instruct</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.33944954128441</v>
+        <v>56.88</v>
       </c>
       <c r="C7" t="n">
-        <v>43.3394495412844</v>
+        <v>32.33</v>
       </c>
       <c r="D7" t="n">
-        <v>52.29357798165137</v>
+        <v>25.28</v>
       </c>
       <c r="E7" t="n">
-        <v>44.36697247706422</v>
+        <v>30.42</v>
       </c>
       <c r="F7" t="n">
-        <v>64.33027522935781</v>
+        <v>41.03</v>
       </c>
       <c r="G7" t="n">
-        <v>75.26605504587155</v>
+        <v>30.28</v>
       </c>
       <c r="H7" t="n">
-        <v>54.86238532110092</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
-        <v>66.20183486238533</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mistral_7b_instruct_v2</t>
+          <t>mistral_7b_instruct_v1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>91.22935779816514</v>
+        <v>83.34</v>
       </c>
       <c r="C8" t="n">
-        <v>38.86238532110092</v>
+        <v>43.34</v>
       </c>
       <c r="D8" t="n">
-        <v>47.52293577981651</v>
+        <v>52.29</v>
       </c>
       <c r="E8" t="n">
-        <v>39.26605504587156</v>
+        <v>44.37</v>
       </c>
       <c r="F8" t="n">
-        <v>5.688073394495413</v>
+        <v>64.33</v>
       </c>
       <c r="G8" t="n">
-        <v>3.926605504587156</v>
+        <v>75.27</v>
       </c>
       <c r="H8" t="n">
-        <v>2.422018348623853</v>
+        <v>54.86</v>
       </c>
       <c r="I8" t="n">
-        <v>2.642201834862385</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mistral_7b_instruct_v3</t>
+          <t>mistral_7b_instruct_v2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.28440366972477</v>
+        <v>91.23</v>
       </c>
       <c r="C9" t="n">
-        <v>55.08256880733945</v>
+        <v>38.86</v>
       </c>
       <c r="D9" t="n">
-        <v>55.08256880733945</v>
+        <v>47.52</v>
       </c>
       <c r="E9" t="n">
-        <v>47.63302752293578</v>
+        <v>39.27</v>
       </c>
       <c r="F9" t="n">
-        <v>26.45871559633027</v>
+        <v>5.69</v>
       </c>
       <c r="G9" t="n">
-        <v>53.21100917431193</v>
+        <v>3.93</v>
       </c>
       <c r="H9" t="n">
-        <v>38.05504587155963</v>
+        <v>2.42</v>
       </c>
       <c r="I9" t="n">
-        <v>54.01834862385321</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mixtral_8x22b_instruct_v01</t>
+          <t>mistral_7b_instruct_v3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.31192660550458</v>
+        <v>89.28</v>
       </c>
       <c r="C10" t="n">
-        <v>68.3302752293578</v>
+        <v>55.08</v>
       </c>
       <c r="D10" t="n">
-        <v>59.22935779816514</v>
+        <v>55.08</v>
       </c>
       <c r="E10" t="n">
-        <v>63.81651376146789</v>
+        <v>47.63</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3669724770642202</v>
+        <v>26.46</v>
       </c>
       <c r="G10" t="n">
-        <v>1.981651376146789</v>
+        <v>53.21</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9908256880733944</v>
+        <v>38.06</v>
       </c>
       <c r="I10" t="n">
-        <v>3.229357798165137</v>
+        <v>54.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mixtral_8x7b_instruct_v01</t>
+          <t>mixtral_8x22b_instruct_v01</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.38532110091742</v>
+        <v>86.31</v>
       </c>
       <c r="C11" t="n">
-        <v>66.78899082568807</v>
+        <v>68.33</v>
       </c>
       <c r="D11" t="n">
-        <v>67.30275229357798</v>
+        <v>59.23</v>
       </c>
       <c r="E11" t="n">
-        <v>65.3211009174312</v>
+        <v>63.82</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9908256880733944</v>
+        <v>0.37</v>
       </c>
       <c r="G11" t="n">
-        <v>6.201834862385321</v>
+        <v>1.98</v>
       </c>
       <c r="H11" t="n">
-        <v>2.091743119266055</v>
+        <v>0.99</v>
       </c>
       <c r="I11" t="n">
-        <v>9.211009174311927</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>phi_3_5_moe_instruct</t>
+          <t>mixtral_8x7b_instruct_v01</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.98165137614679</v>
+        <v>94.39</v>
       </c>
       <c r="C12" t="n">
-        <v>46.67889908256881</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>38.86238532110092</v>
+        <v>67.3</v>
       </c>
       <c r="E12" t="n">
-        <v>43.63302752293578</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>45.90825688073394</v>
+        <v>0.99</v>
       </c>
       <c r="G12" t="n">
-        <v>12.95412844036697</v>
+        <v>6.2</v>
       </c>
       <c r="H12" t="n">
-        <v>15.59633027522936</v>
+        <v>2.09</v>
       </c>
       <c r="I12" t="n">
-        <v>9.064220183486238</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>phi_3_small_8k_instruct</t>
+          <t>phi_3_5_moe_instruct</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35.44954128440367</v>
+        <v>49.98</v>
       </c>
       <c r="C13" t="n">
-        <v>30.4954128440367</v>
+        <v>46.68</v>
       </c>
       <c r="D13" t="n">
-        <v>21.68807339449542</v>
+        <v>38.86</v>
       </c>
       <c r="E13" t="n">
-        <v>26.97247706422019</v>
+        <v>43.63</v>
       </c>
       <c r="F13" t="n">
-        <v>19.22935779816514</v>
+        <v>45.91</v>
       </c>
       <c r="G13" t="n">
-        <v>19.48623853211009</v>
+        <v>12.95</v>
       </c>
       <c r="H13" t="n">
-        <v>43.19266055045872</v>
+        <v>15.6</v>
       </c>
       <c r="I13" t="n">
-        <v>36.69724770642202</v>
+        <v>9.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>qwen_2_5_14b_instruct</t>
+          <t>phi_3_small_8k_instruct</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66.78899082568807</v>
+        <v>35.45</v>
       </c>
       <c r="C14" t="n">
-        <v>29.8348623853211</v>
+        <v>30.5</v>
       </c>
       <c r="D14" t="n">
-        <v>20.14678899082569</v>
+        <v>21.69</v>
       </c>
       <c r="E14" t="n">
-        <v>21.68807339449542</v>
+        <v>26.97</v>
       </c>
       <c r="F14" t="n">
-        <v>47.59633027522936</v>
+        <v>19.23</v>
       </c>
       <c r="G14" t="n">
-        <v>44.03669724770643</v>
+        <v>19.49</v>
       </c>
       <c r="H14" t="n">
-        <v>43.41284403669724</v>
+        <v>43.19</v>
       </c>
       <c r="I14" t="n">
-        <v>36.51376146788991</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>qwen_2_5_14b_instruct</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>66.79000000000001</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29.83</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="E15" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F15" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="G15" t="n">
+        <v>44.04</v>
+      </c>
+      <c r="H15" t="n">
+        <v>43.41</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36.51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>qwen_2_5_7b_instruct</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>79.08256880733944</v>
-      </c>
-      <c r="C15" t="n">
-        <v>42.01834862385321</v>
-      </c>
-      <c r="D15" t="n">
-        <v>33.76146788990826</v>
-      </c>
-      <c r="E15" t="n">
-        <v>47.41284403669725</v>
-      </c>
-      <c r="F15" t="n">
-        <v>68.9908256880734</v>
-      </c>
-      <c r="G15" t="n">
-        <v>59.41284403669724</v>
-      </c>
-      <c r="H15" t="n">
-        <v>59.26605504587156</v>
-      </c>
-      <c r="I15" t="n">
-        <v>44.62385321100918</v>
+      <c r="B16" t="n">
+        <v>79.08</v>
+      </c>
+      <c r="C16" t="n">
+        <v>42.02</v>
+      </c>
+      <c r="D16" t="n">
+        <v>33.76</v>
+      </c>
+      <c r="E16" t="n">
+        <v>47.41</v>
+      </c>
+      <c r="F16" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>59.41</v>
+      </c>
+      <c r="H16" t="n">
+        <v>59.27</v>
+      </c>
+      <c r="I16" t="n">
+        <v>44.62</v>
       </c>
     </row>
   </sheetData>
